--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value113.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value113.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.064759159405353</v>
+        <v>1.860646486282349</v>
       </c>
       <c r="B1">
-        <v>1.893201062463309</v>
+        <v>3.747165679931641</v>
       </c>
       <c r="C1">
-        <v>4.600551435294874</v>
+        <v>1.65989089012146</v>
       </c>
       <c r="D1">
-        <v>2.282816838534702</v>
+        <v>1.06648588180542</v>
       </c>
       <c r="E1">
-        <v>0.9423259665698619</v>
+        <v>1.101778864860535</v>
       </c>
     </row>
   </sheetData>
